--- a/temp_result/[238010] sales academy/[238010] sales academy.xlsx
+++ b/temp_result/[238010] sales academy/[238010] sales academy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="320">
   <si>
     <t>Référence</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Mission_Clean</t>
+  </si>
+  <si>
+    <t>MissionLib</t>
   </si>
   <si>
     <t>8832</t>
@@ -1332,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC61"/>
+  <dimension ref="A1:BD61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,19 +1507,22 @@
       <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2">
         <v>45664</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <v>625100</v>
@@ -1540,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M2">
         <v>35</v>
@@ -1555,81 +1561,84 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AJ2">
         <v>449</v>
       </c>
       <c r="AK2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC2" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>45664</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>625300</v>
@@ -1653,7 +1662,7 @@
         <v>4.17</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M3">
         <v>80</v>
@@ -1662,7 +1671,7 @@
         <v>75.83</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P3">
         <v>4.17</v>
@@ -1680,93 +1689,96 @@
         <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AE3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ3">
         <v>450</v>
       </c>
       <c r="AK3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC3" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>45664</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>625100</v>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M4">
         <v>44</v>
@@ -1805,81 +1817,84 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ4">
         <v>449</v>
       </c>
       <c r="AK4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC4" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>45664</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>625100</v>
@@ -1903,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5">
         <v>44</v>
@@ -1918,81 +1933,84 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ5">
         <v>449</v>
       </c>
       <c r="AK5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC5" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2">
         <v>45664</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>625100</v>
@@ -2016,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M6">
         <v>77</v>
@@ -2031,84 +2049,87 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ6">
         <v>449</v>
       </c>
       <c r="AK6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC6" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>45671</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>625100</v>
@@ -2129,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M7">
         <v>84</v>
@@ -2144,78 +2165,81 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ7">
         <v>449</v>
       </c>
       <c r="AK7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC7" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
         <v>45671</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>625300</v>
@@ -2239,7 +2263,7 @@
         <v>4.11</v>
       </c>
       <c r="L8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M8">
         <v>45.15</v>
@@ -2248,7 +2272,7 @@
         <v>41.04</v>
       </c>
       <c r="O8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P8">
         <v>4.11</v>
@@ -2266,90 +2290,93 @@
         <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AH8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ8">
         <v>450</v>
       </c>
       <c r="AK8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC8" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:56">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2">
         <v>45671</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>625100</v>
@@ -2370,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M9">
         <v>84</v>
@@ -2385,81 +2412,84 @@
         <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AJ9">
         <v>449</v>
       </c>
       <c r="AK9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC9" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
         <v>45678</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>625300</v>
@@ -2483,7 +2513,7 @@
         <v>0.8</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10">
         <v>8.75</v>
@@ -2492,7 +2522,7 @@
         <v>7.95</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10">
         <v>0.8</v>
@@ -2510,84 +2540,87 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ10">
         <v>450</v>
       </c>
       <c r="AK10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC10" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:56">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2">
         <v>45685</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>625400</v>
@@ -2608,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M11">
         <v>806.51</v>
@@ -2620,72 +2653,75 @@
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AJ11">
         <v>525</v>
       </c>
       <c r="AK11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BA11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC11" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:56">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2">
         <v>45692</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>625100</v>
@@ -2709,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M12">
         <v>42</v>
@@ -2724,78 +2760,81 @@
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ12">
         <v>458</v>
       </c>
       <c r="AK12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC12" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:56">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2">
         <v>45692</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>625100</v>
@@ -2819,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13">
         <v>44</v>
@@ -2834,78 +2873,81 @@
         <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ13">
         <v>458</v>
       </c>
       <c r="AK13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC13" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:56">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>45692</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>625300</v>
@@ -2929,7 +2971,7 @@
         <v>0.8</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14">
         <v>8.75</v>
@@ -2938,7 +2980,7 @@
         <v>7.95</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14">
         <v>0.8</v>
@@ -2956,81 +2998,84 @@
         <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ14">
         <v>458</v>
       </c>
       <c r="AK14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC14" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:56">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>45692</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15">
         <v>625100</v>
@@ -3054,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15">
         <v>75</v>
@@ -3069,78 +3114,81 @@
         <v>1</v>
       </c>
       <c r="AA15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AJ15">
         <v>458</v>
       </c>
       <c r="AK15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC15" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2">
         <v>45699</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>625300</v>
@@ -3164,7 +3212,7 @@
         <v>0.09</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M16">
         <v>5.1</v>
@@ -3173,7 +3221,7 @@
         <v>5.01</v>
       </c>
       <c r="O16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16">
         <v>0.09</v>
@@ -3191,81 +3239,84 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AE16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AJ16">
         <v>458</v>
       </c>
       <c r="AK16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC16" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:56">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2">
         <v>45699</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17">
         <v>625300</v>
@@ -3289,7 +3340,7 @@
         <v>0.75</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M17">
         <v>8.300000000000001</v>
@@ -3298,7 +3349,7 @@
         <v>7.55</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P17">
         <v>0.75</v>
@@ -3316,81 +3367,84 @@
         <v>2</v>
       </c>
       <c r="AA17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ17">
         <v>458</v>
       </c>
       <c r="AK17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC17" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:56">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2">
         <v>45699</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18">
         <v>625100</v>
@@ -3414,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18">
         <v>76</v>
@@ -3429,78 +3483,81 @@
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ18">
         <v>458</v>
       </c>
       <c r="AK18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC18" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:56">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2">
         <v>45699</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19">
         <v>625100</v>
@@ -3524,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M19">
         <v>69</v>
@@ -3539,81 +3596,84 @@
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ19">
         <v>458</v>
       </c>
       <c r="AK19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC19" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:56">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2">
         <v>45706</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20">
         <v>625100</v>
@@ -3637,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20">
         <v>44</v>
@@ -3652,78 +3712,81 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ20">
         <v>458</v>
       </c>
       <c r="AK20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC20" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:56">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2">
         <v>45706</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21">
         <v>625100</v>
@@ -3747,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M21">
         <v>44</v>
@@ -3762,78 +3825,81 @@
         <v>1</v>
       </c>
       <c r="AA21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ21">
         <v>458</v>
       </c>
       <c r="AK21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC21" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:56">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2">
         <v>45706</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22">
         <v>625300</v>
@@ -3857,7 +3923,7 @@
         <v>0.67</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M22">
         <v>7.35</v>
@@ -3866,7 +3932,7 @@
         <v>6.68</v>
       </c>
       <c r="O22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P22">
         <v>0.67</v>
@@ -3884,81 +3950,84 @@
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ22">
         <v>458</v>
       </c>
       <c r="AK22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC22" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:56">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2">
         <v>45706</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E23">
         <v>625100</v>
@@ -3982,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M23">
         <v>70</v>
@@ -3997,81 +4066,84 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AJ23">
         <v>458</v>
       </c>
       <c r="AK23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC23" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:56">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2">
         <v>45709</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E24">
         <v>625100</v>
@@ -4095,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24">
         <v>88</v>
@@ -4110,78 +4182,81 @@
         <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ24">
         <v>458</v>
       </c>
       <c r="AK24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC24" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:56">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2">
         <v>45713</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25">
         <v>625100</v>
@@ -4205,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25">
         <v>44</v>
@@ -4220,78 +4295,81 @@
         <v>1</v>
       </c>
       <c r="AA25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ25">
         <v>458</v>
       </c>
       <c r="AK25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC25" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:56">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2">
         <v>45713</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26">
         <v>625100</v>
@@ -4315,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M26">
         <v>44</v>
@@ -4330,78 +4408,81 @@
         <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ26">
         <v>458</v>
       </c>
       <c r="AK26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC26" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:56">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2">
         <v>45713</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E27">
         <v>625400</v>
@@ -4422,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M27">
         <v>201.63</v>
@@ -4434,69 +4515,72 @@
         <v>1</v>
       </c>
       <c r="AA27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ27">
         <v>525</v>
       </c>
       <c r="AK27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BA27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC27" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:56">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2">
         <v>45713</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28">
         <v>625300</v>
@@ -4517,7 +4601,7 @@
         <v>2.09</v>
       </c>
       <c r="L28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M28">
         <v>22.95</v>
@@ -4526,7 +4610,7 @@
         <v>20.86</v>
       </c>
       <c r="O28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28">
         <v>2.09</v>
@@ -4544,90 +4628,93 @@
         <v>3</v>
       </c>
       <c r="AA28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ28">
         <v>459</v>
       </c>
       <c r="AK28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC28" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:56">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2">
         <v>45713</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E29">
         <v>625300</v>
@@ -4651,7 +4738,7 @@
         <v>2.09</v>
       </c>
       <c r="L29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M29">
         <v>22.95</v>
@@ -4660,7 +4747,7 @@
         <v>20.86</v>
       </c>
       <c r="O29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P29">
         <v>2.09</v>
@@ -4678,90 +4765,93 @@
         <v>3</v>
       </c>
       <c r="AA29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AH29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ29">
         <v>459</v>
       </c>
       <c r="AK29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC29" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:56">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2">
         <v>45713</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30">
         <v>625100</v>
@@ -4785,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M30">
         <v>70</v>
@@ -4800,81 +4890,84 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AJ30">
         <v>458</v>
       </c>
       <c r="AK30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC30" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:56">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2">
         <v>45727</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31">
         <v>625400</v>
@@ -4895,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M31">
         <v>403.25</v>
@@ -4907,72 +5000,75 @@
         <v>1</v>
       </c>
       <c r="AA31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ31">
         <v>525</v>
       </c>
       <c r="AK31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BA31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC31" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:56">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2">
         <v>45727</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>625300</v>
@@ -4993,7 +5089,7 @@
         <v>0.8</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M32">
         <v>8.75</v>
@@ -5002,7 +5098,7 @@
         <v>7.95</v>
       </c>
       <c r="O32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P32">
         <v>0.8</v>
@@ -5020,87 +5116,90 @@
         <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ32">
         <v>464</v>
       </c>
       <c r="AK32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC32" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:56">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2">
         <v>45769</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33">
         <v>625100</v>
@@ -5124,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M33">
         <v>88</v>
@@ -5139,81 +5238,84 @@
         <v>1</v>
       </c>
       <c r="AA33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ33">
         <v>483</v>
       </c>
       <c r="AK33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC33" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:56">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2">
         <v>45769</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34">
         <v>625300</v>
@@ -5234,7 +5336,7 @@
         <v>2.45</v>
       </c>
       <c r="L34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M34">
         <v>26.92</v>
@@ -5243,7 +5345,7 @@
         <v>24.47</v>
       </c>
       <c r="O34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P34">
         <v>2.45</v>
@@ -5261,90 +5363,93 @@
         <v>3</v>
       </c>
       <c r="AA34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AI34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ34">
         <v>484</v>
       </c>
       <c r="AK34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC34" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:56">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2">
         <v>45769</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E35">
         <v>625100</v>
@@ -5368,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M35">
         <v>70</v>
@@ -5383,81 +5488,84 @@
         <v>1</v>
       </c>
       <c r="AA35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ35">
         <v>483</v>
       </c>
       <c r="AK35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC35" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:56">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2">
         <v>45771</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5475,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M36">
         <v>27.19</v>
@@ -5490,75 +5598,78 @@
         <v>3</v>
       </c>
       <c r="AA36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ36">
         <v>485</v>
       </c>
       <c r="AK36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AT36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC36" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:56">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2">
         <v>45783</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E37">
         <v>625300</v>
@@ -5582,7 +5693,7 @@
         <v>0.62</v>
       </c>
       <c r="L37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M37">
         <v>6.85</v>
@@ -5591,7 +5702,7 @@
         <v>6.23</v>
       </c>
       <c r="O37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P37">
         <v>0.62</v>
@@ -5609,84 +5720,87 @@
         <v>1</v>
       </c>
       <c r="AA37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AJ37">
         <v>495</v>
       </c>
       <c r="AK37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC37" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:56">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2">
         <v>45797</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <v>625100</v>
@@ -5710,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M38">
         <v>35.7</v>
@@ -5719,7 +5833,7 @@
         <v>32.45</v>
       </c>
       <c r="O38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P38">
         <v>3.25</v>
@@ -5737,75 +5851,78 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ38">
         <v>491</v>
       </c>
       <c r="AK38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC38" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:56">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2">
         <v>45797</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39">
         <v>625100</v>
@@ -5829,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M39">
         <v>44</v>
@@ -5844,78 +5961,81 @@
         <v>1</v>
       </c>
       <c r="AA39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ39">
         <v>491</v>
       </c>
       <c r="AK39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC39" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:56">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2">
         <v>45797</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>625100</v>
@@ -5939,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M40">
         <v>44</v>
@@ -5954,78 +6074,81 @@
         <v>1</v>
       </c>
       <c r="AA40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ40">
         <v>491</v>
       </c>
       <c r="AK40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC40" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:56">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2">
         <v>45797</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E41">
         <v>625100</v>
@@ -6049,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M41">
         <v>32.9</v>
@@ -6058,7 +6181,7 @@
         <v>29.91</v>
       </c>
       <c r="O41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P41">
         <v>2.99</v>
@@ -6076,75 +6199,78 @@
         <v>1</v>
       </c>
       <c r="AA41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ41">
         <v>491</v>
       </c>
       <c r="AK41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC41" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="1:56">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2">
         <v>45811</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E42">
         <v>625100</v>
@@ -6168,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M42">
         <v>35.2</v>
@@ -6183,78 +6309,81 @@
         <v>1</v>
       </c>
       <c r="AA42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ42">
         <v>517</v>
       </c>
       <c r="AK42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC42" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="1:56">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2">
         <v>45811</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43">
         <v>625100</v>
@@ -6278,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M43">
         <v>44</v>
@@ -6293,81 +6422,84 @@
         <v>1</v>
       </c>
       <c r="AA43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ43">
         <v>517</v>
       </c>
       <c r="AK43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC43" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="1:56">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2">
         <v>45811</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E44">
         <v>625100</v>
@@ -6391,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M44">
         <v>44</v>
@@ -6406,81 +6538,84 @@
         <v>1</v>
       </c>
       <c r="AA44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AJ44">
         <v>517</v>
       </c>
       <c r="AK44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC44" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="1:56">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2">
         <v>45811</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45">
         <v>625300</v>
@@ -6504,7 +6639,7 @@
         <v>1.84</v>
       </c>
       <c r="L45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M45">
         <v>20</v>
@@ -6513,7 +6648,7 @@
         <v>18.16</v>
       </c>
       <c r="O45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P45">
         <v>1.84</v>
@@ -6531,81 +6666,84 @@
         <v>2</v>
       </c>
       <c r="AA45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ45">
         <v>503</v>
       </c>
       <c r="AK45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AT45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC45" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="1:56">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2">
         <v>45811</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46">
         <v>625300</v>
@@ -6629,7 +6767,7 @@
         <v>0.65</v>
       </c>
       <c r="L46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M46">
         <v>8.18</v>
@@ -6638,7 +6776,7 @@
         <v>7.53</v>
       </c>
       <c r="O46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P46">
         <v>0.65</v>
@@ -6656,84 +6794,87 @@
         <v>1</v>
       </c>
       <c r="AA46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ46">
         <v>488</v>
       </c>
       <c r="AK46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC46" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="1:56">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2">
         <v>45811</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47">
         <v>625100</v>
@@ -6757,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -6766,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P47">
         <v>3</v>
@@ -6784,81 +6925,84 @@
         <v>1</v>
       </c>
       <c r="AA47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AE47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ47">
         <v>517</v>
       </c>
       <c r="AK47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC47" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="1:56">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2">
         <v>45812</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <v>625400</v>
@@ -6879,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M48">
         <v>201.62</v>
@@ -6891,72 +7035,75 @@
         <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ48">
         <v>525</v>
       </c>
       <c r="AK48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BA48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC48" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="1:56">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2">
         <v>45828</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E49">
         <v>626100</v>
@@ -6980,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M49">
         <v>14.5</v>
@@ -6995,81 +7142,84 @@
         <v>1</v>
       </c>
       <c r="AA49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ49">
         <v>517</v>
       </c>
       <c r="AK49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC49" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="1:56">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2">
         <v>45830</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50">
         <v>625100</v>
@@ -7090,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M50">
         <v>35.4</v>
@@ -7105,84 +7255,87 @@
         <v>1</v>
       </c>
       <c r="AA50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AJ50">
         <v>518</v>
       </c>
       <c r="AK50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP50" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC50" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51" spans="1:56">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2">
         <v>45831</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51">
         <v>625300</v>
@@ -7206,7 +7359,7 @@
         <v>2.3</v>
       </c>
       <c r="L51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M51">
         <v>25.45</v>
@@ -7215,7 +7368,7 @@
         <v>23.15</v>
       </c>
       <c r="O51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P51">
         <v>2.3</v>
@@ -7233,87 +7386,90 @@
         <v>1</v>
       </c>
       <c r="AA51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ51">
         <v>488</v>
       </c>
       <c r="AK51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC51" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52" spans="1:56">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2">
         <v>45831</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E52">
         <v>625100</v>
@@ -7337,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M52">
         <v>37.42</v>
@@ -7346,7 +7502,7 @@
         <v>34.02</v>
       </c>
       <c r="O52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P52">
         <v>3.4</v>
@@ -7364,81 +7520,84 @@
         <v>1</v>
       </c>
       <c r="AA52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ52">
         <v>488</v>
       </c>
       <c r="AK52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC52" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53" spans="1:56">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2">
         <v>45831</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53">
         <v>625100</v>
@@ -7459,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M53">
         <v>46.14</v>
@@ -7468,7 +7627,7 @@
         <v>41.95</v>
       </c>
       <c r="O53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P53">
         <v>4.19</v>
@@ -7486,78 +7645,81 @@
         <v>1</v>
       </c>
       <c r="AA53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AD53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ53">
         <v>518</v>
       </c>
       <c r="AK53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC53" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54" spans="1:56">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2">
         <v>45831</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>625300</v>
@@ -7581,7 +7743,7 @@
         <v>2.28</v>
       </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M54">
         <v>25.1</v>
@@ -7590,7 +7752,7 @@
         <v>22.82</v>
       </c>
       <c r="O54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P54">
         <v>2.28</v>
@@ -7608,87 +7770,90 @@
         <v>1</v>
       </c>
       <c r="AA54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ54">
         <v>488</v>
       </c>
       <c r="AK54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC54" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:55">
+    <row r="55" spans="1:56">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2">
         <v>45831</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>625300</v>
@@ -7709,7 +7874,7 @@
         <v>7.84</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M55">
         <v>47</v>
@@ -7718,7 +7883,7 @@
         <v>39.16</v>
       </c>
       <c r="O55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P55">
         <v>7.84</v>
@@ -7736,84 +7901,87 @@
         <v>1</v>
       </c>
       <c r="AA55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ55">
         <v>518</v>
       </c>
       <c r="AK55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP55" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC55" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:55">
+    <row r="56" spans="1:56">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2">
         <v>45832</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E56">
         <v>625400</v>
@@ -7834,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M56">
         <v>41.55</v>
@@ -7846,72 +8014,75 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ56">
         <v>525</v>
       </c>
       <c r="AK56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT56" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW56" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BA56" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB56" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC56" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:55">
+    <row r="57" spans="1:56">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2">
         <v>45832</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57">
         <v>625100</v>
@@ -7932,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M57">
         <v>2.5</v>
@@ -7941,7 +8112,7 @@
         <v>2.28</v>
       </c>
       <c r="O57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P57">
         <v>0.22</v>
@@ -7959,81 +8130,84 @@
         <v>1</v>
       </c>
       <c r="AA57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ57">
         <v>488</v>
       </c>
       <c r="AK57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC57" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="1:56">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2">
         <v>45832</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E58">
         <v>625300</v>
@@ -8057,7 +8231,7 @@
         <v>1.2</v>
       </c>
       <c r="L58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M58">
         <v>14.5</v>
@@ -8066,7 +8240,7 @@
         <v>13.3</v>
       </c>
       <c r="O58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P58">
         <v>1.05</v>
@@ -8075,7 +8249,7 @@
         <v>445660</v>
       </c>
       <c r="R58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S58">
         <v>0.15</v>
@@ -8093,84 +8267,87 @@
         <v>1</v>
       </c>
       <c r="AA58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ58">
         <v>488</v>
       </c>
       <c r="AK58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL58" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC58" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:55">
+    <row r="59" spans="1:56">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2">
         <v>45832</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59">
         <v>625100</v>
@@ -8194,7 +8371,7 @@
         <v>9.67</v>
       </c>
       <c r="L59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M59">
         <v>58</v>
@@ -8203,7 +8380,7 @@
         <v>48.33</v>
       </c>
       <c r="O59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P59">
         <v>9.67</v>
@@ -8221,84 +8398,87 @@
         <v>1</v>
       </c>
       <c r="AA59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ59">
         <v>488</v>
       </c>
       <c r="AK59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL59" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC59" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:55">
+    <row r="60" spans="1:56">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2">
         <v>45833</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E60">
         <v>625100</v>
@@ -8319,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M60">
         <v>23.8</v>
@@ -8334,84 +8514,87 @@
         <v>1</v>
       </c>
       <c r="AA60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ60">
         <v>518</v>
       </c>
       <c r="AK60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC60" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:55">
+    <row r="61" spans="1:56">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2">
         <v>45834</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61">
         <v>625100</v>
@@ -8432,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M61">
         <v>20</v>
@@ -8441,7 +8624,7 @@
         <v>18.18</v>
       </c>
       <c r="O61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P61">
         <v>1.82</v>
@@ -8459,67 +8642,70 @@
         <v>1</v>
       </c>
       <c r="AA61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ61">
         <v>518</v>
       </c>
       <c r="AK61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AV61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AY61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BA61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BB61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BC61" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
